--- a/pj_creator_2/res/xlsx/races_description.xlsx
+++ b/pj_creator_2/res/xlsx/races_description.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>keys</t>
   </si>
@@ -187,16 +187,90 @@
     <t>mermaid</t>
   </si>
   <si>
+    <t>They are a race of humanoid fish with human 
+faces and torsos. They inhabit the depths of 
+the sea, communicate by singing, and use 
+their song to attract humans and drown them 
+in order to feed on them.</t>
+  </si>
+  <si>
+    <t>es una raza de peces humanoides con rostro
+ y torso humano. Habitan las profundidades 
+de los mares, se comunican cantando y 
+utilizan su canto para atraer a los humanos 
+y ahogarlos para alimentarse de ellos.</t>
+  </si>
+  <si>
     <t>fairy</t>
   </si>
   <si>
+    <t>They are a race of small, winged humanoids. 
+They inhabit forests, light up the night, have 
+great magical abilities, and grant wishes to
+ those who catch them.</t>
+  </si>
+  <si>
+    <t>es una raza de humanoides pequeños con alas.
+ Habitan los bosques, iluminan durante las
+ noches, tienen grandes capacidades magicas 
+y cumplen deseos a quienes las atrapan.</t>
+  </si>
+  <si>
     <t>beast_people</t>
   </si>
   <si>
+    <t>They are a race of hairy humans with a feline 
+or canine appearance. They are less 
+intelligent than humans but have greater 
+physical abilities and strength. They live in
+ forests in large packs, live by hunting, and 
+can use tools.</t>
+  </si>
+  <si>
+    <t>es una raza de hombres peludos con 
+apariencia felina o canina. Son menos 
+inteligentes que los humanos pero tienen 
+mejores capacidades fisicas y fuerza. 
+Habitan los bosques en manadas numerosas, 
+viven de la caza y pueden utilizar herramientas.</t>
+  </si>
+  <si>
     <t>mole_people</t>
   </si>
   <si>
+    <t>They are a race of humanoid beings with the 
+appearance of bald moles and large claws; 
+they inhabit caves and mines. They live off 
+fungi, roots, and subterranean insects. They
+ spend all their time digging and strengthening 
+their underground tunnels. They are 
+practically blind.</t>
+  </si>
+  <si>
+    <t>es una raza de seres humaoides con 
+apariencia de topos calvos y con grandes 
+garras; habitan cuevas y minas. Viven de 
+comer hongos, raíces e insectos subterráneos. 
+Dedica todo su tiempo a cavar y fortalecer 
+sus túneles subterráneos. Son prácticamente 
+ciegos.</t>
+  </si>
+  <si>
     <t>pig_people</t>
+  </si>
+  <si>
+    <t>They are a race of humanoids that look like 
+pigs or rats. They inhabit garbage dumps and
+ sewers, feeding on trash and animal pests. 
+They aren't very intelligent and are resistant 
+to disease and toxins.</t>
+  </si>
+  <si>
+    <t>es una raza de humaoides con apariencia de 
+cerdos o ratas. Habitan basureros y 
+alcantarillas alimentandose de basura y 
+plagas animales. No son muy inteligentes, 
+y son resistentes a las enfermedades y toxicos.</t>
   </si>
   <si>
     <t>angel</t>
@@ -311,14 +385,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,154 +841,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1246,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="97" customHeight="1" outlineLevelCol="3"/>
@@ -1370,199 +1440,229 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
